--- a/public/list.xlsx
+++ b/public/list.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="iHuvx/QQSnOtajAqS2gLqs6Y0DhtLnHdMh3fOgej8yo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="qMyqnzE9ddCXiexH5tjn83iGzykQDP4r4YlygqCEqDY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="390">
   <si>
     <t>S/N</t>
   </si>
@@ -807,9 +807,6 @@
     <t>DESIRE</t>
   </si>
   <si>
-    <t>(+1)5073193312</t>
-  </si>
-  <si>
     <t>ASHIRU</t>
   </si>
   <si>
@@ -939,9 +936,6 @@
     <t>NOAH</t>
   </si>
   <si>
-    <t>(+1) 5073193312</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ABDUL-KADRI</t>
   </si>
   <si>
@@ -1140,6 +1134,12 @@
     <t>CARMINE &amp; RONEL</t>
   </si>
   <si>
+    <t>LEWIS</t>
+  </si>
+  <si>
+    <t>FARA &amp; ITTY</t>
+  </si>
+  <si>
     <t>ENITAN</t>
   </si>
   <si>
@@ -1165,6 +1165,24 @@
   </si>
   <si>
     <t>MARCEL</t>
+  </si>
+  <si>
+    <t>TEST OWOLABI</t>
+  </si>
+  <si>
+    <t>OLALEKAN &amp; ERIIFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST CAMPBELL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAYO, IFETOYE &amp; ELIZABETH </t>
+  </si>
+  <si>
+    <t>TEST RIDWAN</t>
+  </si>
+  <si>
+    <t>IMOLEAYO</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1259,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1309,13 +1327,19 @@
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4973,8 +4997,8 @@
       <c r="D91" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E91" s="18" t="s">
-        <v>263</v>
+      <c r="E91" s="18">
+        <v>15073193312</v>
       </c>
       <c r="F91" s="2">
         <v>1.0</v>
@@ -5005,14 +5029,14 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E92" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="F92" s="2">
         <v>1.0</v>
@@ -5043,11 +5067,11 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="2">
@@ -5079,11 +5103,11 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="2">
@@ -5115,11 +5139,11 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E95" s="5">
         <v>8.067741586E9</v>
@@ -5153,14 +5177,14 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>275</v>
       </c>
       <c r="F96" s="2">
         <v>1.0</v>
@@ -5191,14 +5215,14 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E97" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>278</v>
       </c>
       <c r="F97" s="2">
         <v>1.0</v>
@@ -5229,14 +5253,14 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E98" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="F98" s="2">
         <v>1.0</v>
@@ -5267,14 +5291,14 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F99" s="2">
         <v>1.0</v>
@@ -5305,14 +5329,14 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E100" s="18" t="s">
         <v>285</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>286</v>
       </c>
       <c r="F100" s="2">
         <v>1.0</v>
@@ -5343,14 +5367,14 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E101" s="18" t="s">
         <v>288</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>289</v>
       </c>
       <c r="F101" s="2">
         <v>1.0</v>
@@ -5381,14 +5405,14 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E102" s="18" t="s">
         <v>291</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="F102" s="2">
         <v>1.0</v>
@@ -5419,14 +5443,14 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E103" s="18" t="s">
         <v>294</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="F103" s="2">
         <v>1.0</v>
@@ -5457,14 +5481,14 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E104" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>298</v>
       </c>
       <c r="F104" s="2">
         <v>1.0</v>
@@ -5495,14 +5519,14 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105" s="18" t="s">
         <v>300</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="F105" s="2">
         <v>1.0</v>
@@ -5533,14 +5557,14 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E106" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="E106" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="F106" s="2">
         <v>1.0</v>
@@ -5571,14 +5595,15 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="E107" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
+      </c>
+      <c r="E107" s="18">
+        <f>15073193312</f>
+        <v>15073193312</v>
       </c>
       <c r="F107" s="2">
         <v>1.0</v>
@@ -5609,14 +5634,14 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F108" s="2">
         <v>1.0</v>
@@ -5647,11 +5672,11 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="2">
@@ -5683,11 +5708,11 @@
         <v>109.0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E110" s="18" t="s">
         <v>100</v>
@@ -5721,14 +5746,14 @@
         <v>110.0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F111" s="2">
         <v>1.0</v>
@@ -5759,14 +5784,14 @@
         <v>111.0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F112" s="2">
         <v>1.0</v>
@@ -5797,14 +5822,14 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F113" s="2">
         <v>1.0</v>
@@ -5835,14 +5860,14 @@
         <v>113.0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F114" s="2">
         <v>1.0</v>
@@ -5873,14 +5898,14 @@
         <v>114.0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F115" s="2">
         <v>1.0</v>
@@ -5911,14 +5936,14 @@
         <v>115.0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F116" s="2">
         <v>1.0</v>
@@ -5949,14 +5974,14 @@
         <v>116.0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F117" s="2">
         <v>1.0</v>
@@ -5987,14 +6012,14 @@
         <v>117.0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F118" s="2">
         <v>1.0</v>
@@ -6025,14 +6050,14 @@
         <v>118.0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F119" s="2">
         <v>1.0</v>
@@ -6063,14 +6088,14 @@
         <v>119.0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F120" s="2">
         <v>1.0</v>
@@ -6101,14 +6126,14 @@
         <v>120.0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F121" s="2">
         <v>1.0</v>
@@ -6139,14 +6164,14 @@
         <v>121.0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F122" s="2">
         <v>2.0</v>
@@ -6177,14 +6202,14 @@
         <v>122.0</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F123" s="2">
         <v>1.0</v>
@@ -6215,14 +6240,14 @@
         <v>123.0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F124" s="2">
         <v>1.0</v>
@@ -6253,14 +6278,14 @@
         <v>123.0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F125" s="2">
         <v>1.0</v>
@@ -6290,14 +6315,14 @@
       <c r="A126" s="5">
         <v>124.0</v>
       </c>
-      <c r="B126" s="16" t="s">
-        <v>360</v>
+      <c r="B126" s="19" t="s">
+        <v>358</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E126" s="16">
+        <v>359</v>
+      </c>
+      <c r="E126" s="19">
         <v>8.051931418E9</v>
       </c>
       <c r="F126" s="2">
@@ -6328,14 +6353,14 @@
       <c r="A127" s="5">
         <v>125.0</v>
       </c>
-      <c r="B127" s="16" t="s">
-        <v>362</v>
+      <c r="B127" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E127" s="16">
+        <v>361</v>
+      </c>
+      <c r="E127" s="19">
         <v>8.067651953E9</v>
       </c>
       <c r="F127" s="2">
@@ -6366,14 +6391,14 @@
       <c r="A128" s="5">
         <v>126.0</v>
       </c>
-      <c r="B128" s="16" t="s">
-        <v>364</v>
+      <c r="B128" s="19" t="s">
+        <v>362</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E128" s="16">
+        <v>363</v>
+      </c>
+      <c r="E128" s="19">
         <v>8.069744949E9</v>
       </c>
       <c r="F128" s="2">
@@ -6404,12 +6429,12 @@
       <c r="A129" s="5">
         <v>127.0</v>
       </c>
-      <c r="B129" s="16" t="s">
-        <v>366</v>
+      <c r="B129" s="19" t="s">
+        <v>364</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E129" s="5">
         <v>8.028345098E9</v>
@@ -6442,12 +6467,12 @@
       <c r="A130" s="5">
         <v>128.0</v>
       </c>
-      <c r="B130" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16" t="s">
-        <v>369</v>
+      <c r="B130" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19" t="s">
+        <v>367</v>
       </c>
       <c r="E130" s="5">
         <v>9.03160024E9</v>
@@ -6480,12 +6505,12 @@
       <c r="A131" s="5">
         <v>129.0</v>
       </c>
-      <c r="B131" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16" t="s">
-        <v>371</v>
+      <c r="B131" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19" t="s">
+        <v>369</v>
       </c>
       <c r="E131" s="5">
         <v>7.036284657E9</v>
@@ -6518,12 +6543,12 @@
       <c r="A132" s="5">
         <v>130.0</v>
       </c>
-      <c r="B132" s="16" t="s">
-        <v>372</v>
+      <c r="B132" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="C132" s="5"/>
-      <c r="D132" s="16" t="s">
-        <v>373</v>
+      <c r="D132" s="19" t="s">
+        <v>371</v>
       </c>
       <c r="E132" s="5">
         <v>8.037117311E9</v>
@@ -6553,12 +6578,22 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="5"/>
-      <c r="B133" s="16"/>
+      <c r="A133" s="20">
+        <v>131.0</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>372</v>
+      </c>
       <c r="C133" s="5"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="3"/>
+      <c r="D133" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="E133" s="20">
+        <v>8.034846488E9</v>
+      </c>
+      <c r="F133" s="2">
+        <v>2.0</v>
+      </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="4"/>
@@ -6581,14 +6616,10 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="5">
-        <v>131.0</v>
-      </c>
-      <c r="B134" s="16"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="16" t="s">
-        <v>374</v>
-      </c>
+      <c r="D134" s="19"/>
       <c r="E134" s="5"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -6614,12 +6645,12 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="5">
-        <v>132.0</v>
-      </c>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16" t="s">
-        <v>375</v>
+        <v>131.0</v>
+      </c>
+      <c r="B135" s="19"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="19" t="s">
+        <v>374</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="3"/>
@@ -6646,12 +6677,12 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="5">
-        <v>133.0</v>
-      </c>
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16" t="s">
-        <v>376</v>
+        <v>132.0</v>
+      </c>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19" t="s">
+        <v>375</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="3"/>
@@ -6678,19 +6709,15 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="5">
-        <v>134.0</v>
-      </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E137" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="F137" s="2">
-        <v>1.0</v>
-      </c>
+        <v>133.0</v>
+      </c>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="4"/>
@@ -6714,15 +6741,19 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="5">
-        <v>135.0</v>
-      </c>
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="3"/>
+        <v>134.0</v>
+      </c>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F138" s="2">
+        <v>1.0</v>
+      </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="4"/>
@@ -6746,12 +6777,12 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="5">
-        <v>136.0</v>
-      </c>
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16" t="s">
-        <v>380</v>
+        <v>135.0</v>
+      </c>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19" t="s">
+        <v>379</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="3"/>
@@ -6778,12 +6809,12 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="5">
-        <v>137.0</v>
-      </c>
-      <c r="B140" s="16"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16" t="s">
-        <v>381</v>
+        <v>136.0</v>
+      </c>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19" t="s">
+        <v>380</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="3"/>
@@ -6810,12 +6841,12 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="5">
-        <v>138.0</v>
-      </c>
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16" t="s">
-        <v>382</v>
+        <v>137.0</v>
+      </c>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="3"/>
@@ -6841,11 +6872,15 @@
       <c r="Z141" s="4"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+      <c r="A142" s="5">
+        <v>138.0</v>
+      </c>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E142" s="5"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -6898,11 +6933,19 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="B144" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
+      <c r="D144" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E144" s="2">
+        <v>9.083418541E9</v>
+      </c>
+      <c r="F144" s="2">
+        <v>2.0</v>
+      </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="4"/>
@@ -6926,11 +6969,19 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="B145" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+      <c r="D145" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E145" s="2">
+        <v>8.027592066E9</v>
+      </c>
+      <c r="F145" s="2">
+        <v>3.0</v>
+      </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="4"/>
@@ -6954,11 +7005,19 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="B146" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
+      <c r="D146" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E146" s="2">
+        <v>9.024304315E9</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1.0</v>
+      </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="4"/>
@@ -7514,9 +7573,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="3"/>
-      <c r="B166" s="3" t="s">
-        <v>383</v>
-      </c>
+      <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -7544,7 +7601,9 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="B167" s="3" t="s">
+        <v>389</v>
+      </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -8496,9 +8555,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="3"/>
-      <c r="B201" s="3" t="s">
-        <v>383</v>
-      </c>
+      <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8526,7 +8583,9 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+      <c r="B202" s="3" t="s">
+        <v>389</v>
+      </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -14124,7 +14183,34 @@
       <c r="Y401" s="4"/>
       <c r="Z401" s="4"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="A402" s="3"/>
+      <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
+      <c r="D402" s="3"/>
+      <c r="E402" s="3"/>
+      <c r="F402" s="3"/>
+      <c r="G402" s="3"/>
+      <c r="H402" s="3"/>
+      <c r="I402" s="4"/>
+      <c r="J402" s="4"/>
+      <c r="K402" s="4"/>
+      <c r="L402" s="4"/>
+      <c r="M402" s="4"/>
+      <c r="N402" s="4"/>
+      <c r="O402" s="4"/>
+      <c r="P402" s="4"/>
+      <c r="Q402" s="4"/>
+      <c r="R402" s="4"/>
+      <c r="S402" s="4"/>
+      <c r="T402" s="4"/>
+      <c r="U402" s="4"/>
+      <c r="V402" s="4"/>
+      <c r="W402" s="4"/>
+      <c r="X402" s="4"/>
+      <c r="Y402" s="4"/>
+      <c r="Z402" s="4"/>
+    </row>
     <row r="403" ht="15.75" customHeight="1"/>
     <row r="404" ht="15.75" customHeight="1"/>
     <row r="405" ht="15.75" customHeight="1"/>
@@ -14723,6 +14809,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/public/list.xlsx
+++ b/public/list.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="qMyqnzE9ddCXiexH5tjn83iGzykQDP4r4YlygqCEqDY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="UzCycJ5fT5kO34KlU4pWTmxJTiFMjaQeaJCymF1ZDYY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="391">
   <si>
     <t>S/N</t>
   </si>
@@ -105,684 +105,684 @@
     <t>FARIDAH &amp; FAREED</t>
   </si>
   <si>
+    <t>0802 829 9853</t>
+  </si>
+  <si>
+    <t>FAKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIELLA &amp; ARIN </t>
+  </si>
+  <si>
+    <t>08129966300</t>
+  </si>
+  <si>
+    <t>CAULCRICK</t>
+  </si>
+  <si>
+    <t>ELSA &amp; ALVAN</t>
+  </si>
+  <si>
+    <t>08023067371</t>
+  </si>
+  <si>
+    <t>BURAIMOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDERAOLUWA &amp; DARASIMI </t>
+  </si>
+  <si>
+    <t>08028923738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KANU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAYLIE &amp; SAVIOUR </t>
+  </si>
+  <si>
+    <t>09114976678</t>
+  </si>
+  <si>
+    <t>OKANLAWON</t>
+  </si>
+  <si>
+    <t>OYINDAMOLA, OKIKIOLUWA &amp; TIWALOLA</t>
+  </si>
+  <si>
+    <t>0808027704160</t>
+  </si>
+  <si>
+    <t>OMOJIADE</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER &amp; ETHAN</t>
+  </si>
+  <si>
+    <t>08098159964</t>
+  </si>
+  <si>
+    <t>BASHARU</t>
+  </si>
+  <si>
+    <t>KAMILA &amp; AMIN</t>
+  </si>
+  <si>
     <t>08023117602</t>
   </si>
   <si>
-    <t>FAKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIELLA &amp; ARIN </t>
-  </si>
-  <si>
-    <t>08129966300</t>
-  </si>
-  <si>
-    <t>CAULCRICK</t>
-  </si>
-  <si>
-    <t>ELSA &amp; ALVAN</t>
-  </si>
-  <si>
-    <t>08023067371</t>
-  </si>
-  <si>
-    <t>BURAIMOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDERAOLUWA &amp; DARASIMI </t>
-  </si>
-  <si>
-    <t>08028923738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KANU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAYLIE &amp; SAVIOUR </t>
-  </si>
-  <si>
-    <t>09114976678</t>
-  </si>
-  <si>
-    <t>OKANLAWON</t>
-  </si>
-  <si>
-    <t>OYINDAMOLA, OKIKIOLUWA &amp; TIWALOLA</t>
+    <t>SHODIPO</t>
+  </si>
+  <si>
+    <t>SEYANU , IDUNUOLUWA &amp; SUBOMI</t>
+  </si>
+  <si>
+    <t>08034152595</t>
+  </si>
+  <si>
+    <t>OMENE</t>
+  </si>
+  <si>
+    <t>OME &amp; OFOVWE</t>
+  </si>
+  <si>
+    <t>08183149397</t>
+  </si>
+  <si>
+    <t>OSENI</t>
+  </si>
+  <si>
+    <t>OLAKOBI &amp; OMOSOLA</t>
+  </si>
+  <si>
+    <t>08093384455</t>
+  </si>
+  <si>
+    <t>UKPATA</t>
+  </si>
+  <si>
+    <t>IREOLUWA &amp; DARASIMI</t>
+  </si>
+  <si>
+    <t>08036363821</t>
+  </si>
+  <si>
+    <t>OGUNSEYE</t>
+  </si>
+  <si>
+    <t>MAYOMIKUN, TOFUNMI &amp; FOREFUNMI</t>
+  </si>
+  <si>
+    <t>08005910591</t>
+  </si>
+  <si>
+    <t>ADEGBITE</t>
+  </si>
+  <si>
+    <t>TIRENI &amp; TISHE</t>
+  </si>
+  <si>
+    <t>0803762863</t>
+  </si>
+  <si>
+    <t>ADETIRAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMILADE, DESIRE &amp; INIOLUWA </t>
+  </si>
+  <si>
+    <t>08023306619</t>
+  </si>
+  <si>
+    <t>GOODEY</t>
+  </si>
+  <si>
+    <t>NICOLE &amp; MARIO</t>
+  </si>
+  <si>
+    <t>07056469573</t>
+  </si>
+  <si>
+    <t>AWOSHEYE</t>
+  </si>
+  <si>
+    <t>OMOLABAKE &amp; ADEGBOLA</t>
+  </si>
+  <si>
+    <t>08060504810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAMI </t>
+  </si>
+  <si>
+    <t>MORINSOLA &amp; JADESOLA</t>
+  </si>
+  <si>
+    <t>08032002197</t>
+  </si>
+  <si>
+    <t>EGHAREVBA</t>
+  </si>
+  <si>
+    <t>KAYLA, RYAN, CYRUS &amp; NATHAN</t>
+  </si>
+  <si>
+    <t>08183893893</t>
+  </si>
+  <si>
+    <t>ABUBAKAR</t>
+  </si>
+  <si>
+    <t>AMNA, AMRA, MIRIAM &amp; AMAL</t>
+  </si>
+  <si>
+    <t>08069789336</t>
+  </si>
+  <si>
+    <t>ADEWOLE</t>
+  </si>
+  <si>
+    <t>TEMILOLUWA  &amp; ADESOLA</t>
+  </si>
+  <si>
+    <t>08181329766</t>
+  </si>
+  <si>
+    <t>FISCHER</t>
+  </si>
+  <si>
+    <t>TSEMAYE &amp; BRUME</t>
+  </si>
+  <si>
+    <t>08136623934</t>
+  </si>
+  <si>
+    <t>FASHOGBON</t>
+  </si>
+  <si>
+    <t>TAMILORE, JESUTOFUNMI, TOJUBELO &amp;  MAYOMIKUN</t>
+  </si>
+  <si>
+    <t>08146791344</t>
+  </si>
+  <si>
+    <t>DAWSON - OBASEKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEGHESE, AURORA  &amp; OGHOSA </t>
+  </si>
+  <si>
+    <t>08176031303</t>
+  </si>
+  <si>
+    <t>OLUGBOYEGUN</t>
+  </si>
+  <si>
+    <t>FARA, EMMANUELLA &amp; FIYIN</t>
+  </si>
+  <si>
+    <t>08052365650</t>
+  </si>
+  <si>
+    <t>ALAGBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODESIRE &amp; ADEMIDE </t>
+  </si>
+  <si>
+    <t>07034324687</t>
+  </si>
+  <si>
+    <t>JUNAID</t>
+  </si>
+  <si>
+    <t>BELLA , AMELIA &amp; DIDUN</t>
+  </si>
+  <si>
+    <t>08164636121</t>
+  </si>
+  <si>
+    <t>DINYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIARAOLUWA &amp; TIFEOLUWA </t>
+  </si>
+  <si>
+    <t>08036635838</t>
+  </si>
+  <si>
+    <t>ADESANYA</t>
+  </si>
+  <si>
+    <t>SEMILORE, AYOMIKUN &amp; OLADIPUPO</t>
+  </si>
+  <si>
+    <t>08129997680</t>
+  </si>
+  <si>
+    <t>DOKUN</t>
+  </si>
+  <si>
+    <t>TONI &amp; TOMI</t>
+  </si>
+  <si>
+    <t>08033139160</t>
+  </si>
+  <si>
+    <t>APANPA</t>
+  </si>
+  <si>
+    <t>HOPE &amp; HARMONY</t>
+  </si>
+  <si>
+    <t>08079939269</t>
+  </si>
+  <si>
+    <t>DALLAS</t>
+  </si>
+  <si>
+    <t>YASIR &amp; YASMIN</t>
+  </si>
+  <si>
+    <t>09090404879</t>
+  </si>
+  <si>
+    <t>BANDELE</t>
+  </si>
+  <si>
+    <t>MUREWA &amp; TIRESIMI</t>
+  </si>
+  <si>
+    <t>09070575902</t>
+  </si>
+  <si>
+    <t>ADEWALE</t>
+  </si>
+  <si>
+    <t>JADESOLA &amp; MICHEAL</t>
+  </si>
+  <si>
+    <t>08079177129</t>
+  </si>
+  <si>
+    <t>OKUWOBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENIOLA &amp; OBA </t>
+  </si>
+  <si>
+    <t>08087590798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUROJAIYE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYOMIDE &amp; AYOOLA </t>
+  </si>
+  <si>
+    <t>08023076167</t>
+  </si>
+  <si>
+    <t>NKOLOENYI</t>
+  </si>
+  <si>
+    <t>ZINACHI, USOCHI &amp; ZITEL</t>
+  </si>
+  <si>
+    <t>08060555177</t>
+  </si>
+  <si>
+    <t>ONYEMELUKWE</t>
+  </si>
+  <si>
+    <t>CHINENYE &amp; ADAEZE</t>
+  </si>
+  <si>
+    <t>08038751764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBEMISOLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAZIRA, HAMIDA &amp; HAMEED </t>
+  </si>
+  <si>
+    <t>08104102416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OJIKE </t>
+  </si>
+  <si>
+    <t>EZINNE &amp; IGWE</t>
+  </si>
+  <si>
+    <t>07054386816</t>
+  </si>
+  <si>
+    <t>ODUSANYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANI, TIARA &amp; TITOBIOLUWA </t>
+  </si>
+  <si>
+    <t>07059189151</t>
+  </si>
+  <si>
+    <t>AKINLUYI</t>
+  </si>
+  <si>
+    <t>OLUWATITO &amp; OLUWATISE</t>
+  </si>
+  <si>
+    <t>08037584440</t>
+  </si>
+  <si>
+    <t>OGUNTAYO</t>
+  </si>
+  <si>
+    <t>FOLAKEMI &amp; DAPO</t>
+  </si>
+  <si>
+    <t>08088850011</t>
+  </si>
+  <si>
+    <t>MADUKA</t>
+  </si>
+  <si>
+    <t>IAN &amp; ELISHA</t>
+  </si>
+  <si>
+    <t>O8180444879</t>
+  </si>
+  <si>
+    <t>JAIYEOBA</t>
+  </si>
+  <si>
+    <t>FERANMI &amp; DARASIMI</t>
+  </si>
+  <si>
+    <t>08033797112</t>
+  </si>
+  <si>
+    <t>AYANWOLA</t>
+  </si>
+  <si>
+    <t>MOFE &amp; FOLAJIMI</t>
+  </si>
+  <si>
+    <t>08109248489</t>
+  </si>
+  <si>
+    <t>OKO</t>
+  </si>
+  <si>
+    <t>ALEX &amp; AISOSA</t>
+  </si>
+  <si>
+    <t>08059603975</t>
+  </si>
+  <si>
+    <t>BADEJO</t>
+  </si>
+  <si>
+    <t>BAMISHE &amp; SHAYOMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADEOLA &amp; ADEREMITIOLUWA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKORIE </t>
+  </si>
+  <si>
+    <t>MICHEAL, ALEX, STEPHEN &amp; GODWIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISREAL JOSEPH</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>07038069081</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOSEPH</t>
+  </si>
+  <si>
+    <t>DUNBARIN &amp; OLUWATIISE</t>
+  </si>
+  <si>
+    <t>08032232560</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NKOYO</t>
+  </si>
+  <si>
+    <t>DAYANA</t>
+  </si>
+  <si>
+    <t>08063271103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OPADOYIN</t>
+  </si>
+  <si>
+    <t>IBUKUNOLUWA &amp; EWAOLUWA</t>
+  </si>
+  <si>
+    <t>07030587030</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADELEKAN</t>
+  </si>
+  <si>
+    <t>EMMANUELLA</t>
+  </si>
+  <si>
+    <t>08134017148</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WILLIAMS</t>
+  </si>
+  <si>
+    <t>ZIVAH</t>
+  </si>
+  <si>
+    <t>07086448848</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAHMAN</t>
+  </si>
+  <si>
+    <t>DAISY</t>
+  </si>
+  <si>
+    <t>08034265377</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADEDAYO</t>
+  </si>
+  <si>
+    <t>MUTMAINAH</t>
+  </si>
+  <si>
+    <t>08028812301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEGELE</t>
+  </si>
+  <si>
+    <t>NABEELAH</t>
+  </si>
+  <si>
+    <t>07060800319</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AKINYEMI</t>
+  </si>
+  <si>
+    <t>OLUWATIRESOLA</t>
+  </si>
+  <si>
+    <t>08131813552</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAKARE</t>
+  </si>
+  <si>
+    <t>DAMISIN &amp; DARASIMI</t>
+  </si>
+  <si>
+    <t>08023733637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHENG</t>
+  </si>
+  <si>
+    <t>SHILLIU</t>
+  </si>
+  <si>
+    <t>08112111213</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>TOBECHI</t>
+  </si>
+  <si>
+    <t>08185592963</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HECKSHER- AKINNIGBAGBE</t>
+  </si>
+  <si>
+    <t>VIOLA</t>
+  </si>
+  <si>
+    <t>08061177006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OLUSEGUN - OLAOKE</t>
+  </si>
+  <si>
+    <t>DAVINA</t>
+  </si>
+  <si>
+    <t>08086095005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAMGBOLA</t>
+  </si>
+  <si>
+    <t>MICHELLE</t>
+  </si>
+  <si>
+    <t>08065931403</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DANKARO</t>
+  </si>
+  <si>
+    <t>WASHU</t>
+  </si>
+  <si>
+    <t>08023268181</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SANUSI</t>
+  </si>
+  <si>
+    <t>HABEEBAH</t>
+  </si>
+  <si>
+    <t>07057762863</t>
+  </si>
+  <si>
+    <t>AYOOLA</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>08057494545</t>
+  </si>
+  <si>
+    <t>ABBA</t>
+  </si>
+  <si>
+    <t>07057762545</t>
+  </si>
+  <si>
+    <t>OLAIFA</t>
+  </si>
+  <si>
+    <t>ARABELLA</t>
+  </si>
+  <si>
+    <t>08124878861</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHIJIOKE</t>
+  </si>
+  <si>
+    <t>MUNACHI</t>
+  </si>
+  <si>
+    <t>09043628843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADEDINI</t>
+  </si>
+  <si>
+    <t>MOTUNRINSOLA</t>
+  </si>
+  <si>
+    <t>08091648150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGBEYO</t>
+  </si>
+  <si>
+    <t>PRINCESS</t>
+  </si>
+  <si>
+    <t>08088685338</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BRIMMO</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADEBOLA</t>
+  </si>
+  <si>
+    <t>NAYLA</t>
+  </si>
+  <si>
+    <t>08032235176</t>
+  </si>
+  <si>
+    <t>SHONIBARE</t>
+  </si>
+  <si>
+    <t>SHEYFUNMI</t>
+  </si>
+  <si>
+    <t>08069326506</t>
+  </si>
+  <si>
+    <t>KASSIM</t>
+  </si>
+  <si>
+    <t>TIWA</t>
   </si>
   <si>
     <t>08032002939</t>
   </si>
   <si>
-    <t>OMOJIADE</t>
-  </si>
-  <si>
-    <t>CHRISTOPHER &amp; ETHAN</t>
-  </si>
-  <si>
-    <t>08098159964</t>
-  </si>
-  <si>
-    <t>BASHARU</t>
-  </si>
-  <si>
-    <t>KAMILA &amp; AMIN</t>
-  </si>
-  <si>
-    <t>SHODIPO</t>
-  </si>
-  <si>
-    <t>SEYANU , IDUNUOLUWA &amp; SUBOMI</t>
-  </si>
-  <si>
-    <t>08034152595</t>
-  </si>
-  <si>
-    <t>OMENE</t>
-  </si>
-  <si>
-    <t>OME &amp; OFOVWE</t>
-  </si>
-  <si>
-    <t>08183149397</t>
-  </si>
-  <si>
-    <t>OSENI</t>
-  </si>
-  <si>
-    <t>OLAKOBI &amp; OMOSOLA</t>
-  </si>
-  <si>
-    <t>08093384455</t>
-  </si>
-  <si>
-    <t>UKPATA</t>
-  </si>
-  <si>
-    <t>IREOLUWA &amp; DARASIMI</t>
-  </si>
-  <si>
-    <t>08036363821</t>
-  </si>
-  <si>
-    <t>OGUNSEYE</t>
-  </si>
-  <si>
-    <t>MAYOMIKUN, TOFUNMI &amp; FOREFUNMI</t>
-  </si>
-  <si>
-    <t>08005910591</t>
-  </si>
-  <si>
-    <t>ADEGBITE</t>
-  </si>
-  <si>
-    <t>TIRENI &amp; TISHE</t>
-  </si>
-  <si>
-    <t>0803762863</t>
-  </si>
-  <si>
-    <t>ADETIRAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMILADE, DESIRE &amp; INIOLUWA </t>
-  </si>
-  <si>
-    <t>08023306619</t>
-  </si>
-  <si>
-    <t>GOODEY</t>
-  </si>
-  <si>
-    <t>NICOLE &amp; MARIO</t>
-  </si>
-  <si>
-    <t>07056469573</t>
-  </si>
-  <si>
-    <t>AWOSHEYE</t>
-  </si>
-  <si>
-    <t>OMOLABAKE &amp; ADEGBOLA</t>
-  </si>
-  <si>
-    <t>08060504810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALAMI </t>
-  </si>
-  <si>
-    <t>MORINSOLA &amp; JADESOLA</t>
-  </si>
-  <si>
-    <t>08032002197</t>
-  </si>
-  <si>
-    <t>EGHAREVBA</t>
-  </si>
-  <si>
-    <t>KAYLA, RYAN, CYRUS &amp; NATHAN</t>
-  </si>
-  <si>
-    <t>08183893893</t>
-  </si>
-  <si>
-    <t>ABUBAKAR</t>
-  </si>
-  <si>
-    <t>AMNA, AMRA, MIRIAM &amp; AMAL</t>
-  </si>
-  <si>
-    <t>08069789336</t>
-  </si>
-  <si>
-    <t>ADEWOLE</t>
-  </si>
-  <si>
-    <t>TEMILOLUWA  &amp; ADESOLA</t>
-  </si>
-  <si>
-    <t>08181329766</t>
-  </si>
-  <si>
-    <t>FISCHER</t>
-  </si>
-  <si>
-    <t>TSEMAYE &amp; BRUME</t>
-  </si>
-  <si>
-    <t>08136623934</t>
-  </si>
-  <si>
-    <t>FASHOGBON</t>
-  </si>
-  <si>
-    <t>TAMILORE, JESUTOFUNMI, TOJUBELO &amp;  MAYOMIKUN</t>
-  </si>
-  <si>
-    <t>08146791344</t>
-  </si>
-  <si>
-    <t>DAWSON - OBASEKI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEGHESE, AURORA  &amp; OGHOSA </t>
-  </si>
-  <si>
-    <t>08176031303</t>
-  </si>
-  <si>
-    <t>OLUGBOYEGUN</t>
-  </si>
-  <si>
-    <t>FARA, EMMANUELLA &amp; FIYIN</t>
-  </si>
-  <si>
-    <t>08052365650</t>
-  </si>
-  <si>
-    <t>ALAGBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODESIRE &amp; ADEMIDE </t>
-  </si>
-  <si>
-    <t>07034324687</t>
-  </si>
-  <si>
-    <t>JUNAID</t>
-  </si>
-  <si>
-    <t>BELLA , AMELIA &amp; DIDUN</t>
-  </si>
-  <si>
-    <t>08164636121</t>
-  </si>
-  <si>
-    <t>DINYO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIARAOLUWA &amp; TIFEOLUWA </t>
-  </si>
-  <si>
-    <t>08036635838</t>
-  </si>
-  <si>
-    <t>ADESANYA</t>
-  </si>
-  <si>
-    <t>SEMILORE, AYOMIKUN &amp; OLADIPUPO</t>
-  </si>
-  <si>
-    <t>08129997680</t>
-  </si>
-  <si>
-    <t>DOKUN</t>
-  </si>
-  <si>
-    <t>TONI &amp; TOMI</t>
-  </si>
-  <si>
-    <t>08033139160</t>
-  </si>
-  <si>
-    <t>APANPA</t>
-  </si>
-  <si>
-    <t>HOPE &amp; HARMONY</t>
-  </si>
-  <si>
-    <t>08079939269</t>
-  </si>
-  <si>
-    <t>DALLAS</t>
-  </si>
-  <si>
-    <t>YASIR &amp; YASMIN</t>
-  </si>
-  <si>
-    <t>09090404879</t>
-  </si>
-  <si>
-    <t>BANDELE</t>
-  </si>
-  <si>
-    <t>MUREWA &amp; TIRESIMI</t>
-  </si>
-  <si>
-    <t>09070575902</t>
-  </si>
-  <si>
-    <t>ADEWALE</t>
-  </si>
-  <si>
-    <t>JADESOLA &amp; MICHEAL</t>
-  </si>
-  <si>
-    <t>08079177129</t>
-  </si>
-  <si>
-    <t>OKUWOBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENIOLA &amp; OBA </t>
-  </si>
-  <si>
-    <t>08087590798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUROJAIYE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AYOMIDE &amp; AYOOLA </t>
-  </si>
-  <si>
-    <t>08023076167</t>
-  </si>
-  <si>
-    <t>NKOLOENYI</t>
-  </si>
-  <si>
-    <t>ZINACHI, USOCHI &amp; ZITEL</t>
-  </si>
-  <si>
-    <t>08060555177</t>
-  </si>
-  <si>
-    <t>ONYEMELUKWE</t>
-  </si>
-  <si>
-    <t>CHINENYE &amp; ADAEZE</t>
-  </si>
-  <si>
-    <t>08038751764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBEMISOLA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAZIRA, HAMIDA &amp; HAMEED </t>
-  </si>
-  <si>
-    <t>08104102416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OJIKE </t>
-  </si>
-  <si>
-    <t>EZINNE &amp; IGWE</t>
-  </si>
-  <si>
-    <t>07054386816</t>
-  </si>
-  <si>
-    <t>ODUSANYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANI, TIARA &amp; TITOBIOLUWA </t>
-  </si>
-  <si>
-    <t>07059189151</t>
-  </si>
-  <si>
-    <t>AKINLUYI</t>
-  </si>
-  <si>
-    <t>OLUWATITO &amp; OLUWATISE</t>
-  </si>
-  <si>
-    <t>08037584440</t>
-  </si>
-  <si>
-    <t>OGUNTAYO</t>
-  </si>
-  <si>
-    <t>FOLAKEMI &amp; DAPO</t>
-  </si>
-  <si>
-    <t>08088850011</t>
-  </si>
-  <si>
-    <t>MADUKA</t>
-  </si>
-  <si>
-    <t>IAN &amp; ELISHA</t>
-  </si>
-  <si>
-    <t>O8180444879</t>
-  </si>
-  <si>
-    <t>JAIYEOBA</t>
-  </si>
-  <si>
-    <t>FERANMI &amp; DARASIMI</t>
-  </si>
-  <si>
-    <t>08033797112</t>
-  </si>
-  <si>
-    <t>AYANWOLA</t>
-  </si>
-  <si>
-    <t>MOFE &amp; FOLAJIMI</t>
-  </si>
-  <si>
-    <t>08109248489</t>
-  </si>
-  <si>
-    <t>OKO</t>
-  </si>
-  <si>
-    <t>ALEX &amp; AISOSA</t>
-  </si>
-  <si>
-    <t>08059603975</t>
-  </si>
-  <si>
-    <t>BADEJO</t>
-  </si>
-  <si>
-    <t>BAMISHE &amp; SHAYOMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADEOLA &amp; ADEREMITIOLUWA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OKORIE </t>
-  </si>
-  <si>
-    <t>MICHEAL, ALEX, STEPHEN &amp; GODWIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ISREAL JOSEPH</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>07038069081</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JOSEPH</t>
-  </si>
-  <si>
-    <t>DUNBARIN &amp; OLUWATIISE</t>
-  </si>
-  <si>
-    <t>08032232560</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NKOYO</t>
-  </si>
-  <si>
-    <t>DAYANA</t>
-  </si>
-  <si>
-    <t>08063271103</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OPADOYIN</t>
-  </si>
-  <si>
-    <t>IBUKUNOLUWA</t>
-  </si>
-  <si>
-    <t>07030587030</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADELEKAN</t>
-  </si>
-  <si>
-    <t>EMMANUELLA</t>
-  </si>
-  <si>
-    <t>08134017148</t>
-  </si>
-  <si>
-    <t>EWAOLUWA</t>
-  </si>
-  <si>
-    <t>08023733637</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WILLIAMS</t>
-  </si>
-  <si>
-    <t>ZIVAH</t>
-  </si>
-  <si>
-    <t>07086448848</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RAHMAN</t>
-  </si>
-  <si>
-    <t>DAISY</t>
-  </si>
-  <si>
-    <t>08034265377</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADEDAYO</t>
-  </si>
-  <si>
-    <t>MUTMAINAH</t>
-  </si>
-  <si>
-    <t>08028812301</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GEGELE</t>
-  </si>
-  <si>
-    <t>NABEELAH</t>
-  </si>
-  <si>
-    <t>07060800319</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AKINYEMI</t>
-  </si>
-  <si>
-    <t>OLUWATIRESOLA</t>
-  </si>
-  <si>
-    <t>08131813552</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAKARE</t>
-  </si>
-  <si>
-    <t>DAMISIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CHENG</t>
-  </si>
-  <si>
-    <t>SHILLIU</t>
-  </si>
-  <si>
-    <t>08112111213</t>
-  </si>
-  <si>
-    <t>ODU</t>
-  </si>
-  <si>
-    <t>TOBECHI</t>
-  </si>
-  <si>
-    <t>08185592963</t>
-  </si>
-  <si>
-    <t>DARASIMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HECKSHER- AKINNIGBAGBE</t>
-  </si>
-  <si>
-    <t>VIOLA</t>
-  </si>
-  <si>
-    <t>08061177006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OLUSEGUN - OLAOKE</t>
-  </si>
-  <si>
-    <t>DAVINA</t>
-  </si>
-  <si>
-    <t>08086095005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAMGBOLA</t>
-  </si>
-  <si>
-    <t>MICHELLE</t>
-  </si>
-  <si>
-    <t>08065931403</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DANKARO</t>
-  </si>
-  <si>
-    <t>WASHU</t>
-  </si>
-  <si>
-    <t>08023268181</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SANUSI</t>
-  </si>
-  <si>
-    <t>HABEEBAH</t>
-  </si>
-  <si>
-    <t>07057762863</t>
-  </si>
-  <si>
-    <t>AYOOLA</t>
-  </si>
-  <si>
-    <t>VICTORIA</t>
-  </si>
-  <si>
-    <t>08057494545</t>
-  </si>
-  <si>
-    <t>ABBA</t>
-  </si>
-  <si>
-    <t>07057762545</t>
-  </si>
-  <si>
-    <t>OLAIFA</t>
-  </si>
-  <si>
-    <t>ARABELLA</t>
-  </si>
-  <si>
-    <t>08124878861</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CHIJIOKE</t>
-  </si>
-  <si>
-    <t>MUNACHI</t>
-  </si>
-  <si>
-    <t>09043628843</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADEDINI</t>
-  </si>
-  <si>
-    <t>MOTUNRINSOLA</t>
-  </si>
-  <si>
-    <t>08091648150</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AGBEYO</t>
-  </si>
-  <si>
-    <t>PRINCESS</t>
-  </si>
-  <si>
-    <t>08088685338</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BRIMMO</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADEBOLA</t>
-  </si>
-  <si>
-    <t>NAYLA</t>
-  </si>
-  <si>
-    <t>08032235176</t>
-  </si>
-  <si>
-    <t>SHONIBARE</t>
-  </si>
-  <si>
-    <t>SHEYFUNMI</t>
-  </si>
-  <si>
-    <t>08069326506</t>
-  </si>
-  <si>
-    <t>KASSIM</t>
-  </si>
-  <si>
-    <t>TIWA</t>
-  </si>
-  <si>
     <t xml:space="preserve"> OLATUNJI</t>
   </si>
   <si>
@@ -955,6 +955,9 @@
   </si>
   <si>
     <t>KINGSLEY</t>
+  </si>
+  <si>
+    <t>08034044046</t>
   </si>
   <si>
     <t xml:space="preserve"> BOMBATA</t>
@@ -1277,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1317,6 +1320,9 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1334,6 +1340,12 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -1883,7 +1895,7 @@
       <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="9">
@@ -2073,7 +2085,7 @@
       <c r="D14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="9">
@@ -2150,7 +2162,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F16" s="9">
         <v>2.0</v>
@@ -2181,14 +2193,14 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="9">
         <v>3.0</v>
@@ -2219,14 +2231,14 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="9">
         <v>2.0</v>
@@ -2257,14 +2269,14 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="9">
         <v>2.0</v>
@@ -2295,14 +2307,14 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" s="9">
         <v>2.0</v>
@@ -2333,14 +2345,14 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="9">
         <v>3.0</v>
@@ -2371,14 +2383,14 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="9">
         <v>2.0</v>
@@ -2409,14 +2421,14 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="9">
         <v>3.0</v>
@@ -2447,14 +2459,14 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="9">
         <v>2.0</v>
@@ -2485,14 +2497,14 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9">
         <v>2.0</v>
@@ -2523,14 +2535,14 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" s="9">
         <v>2.0</v>
@@ -2561,14 +2573,14 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F27" s="9">
         <v>4.0</v>
@@ -2599,14 +2611,14 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28" s="9">
         <v>4.0</v>
@@ -2637,14 +2649,14 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" s="9">
         <v>2.0</v>
@@ -2675,14 +2687,14 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F30" s="9">
         <v>2.0</v>
@@ -2713,14 +2725,14 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F31" s="9">
         <v>4.0</v>
@@ -2751,14 +2763,14 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32" s="9">
         <v>3.0</v>
@@ -2789,14 +2801,14 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F33" s="9">
         <v>3.0</v>
@@ -2827,14 +2839,14 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F34" s="9">
         <v>2.0</v>
@@ -2865,14 +2877,14 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F35" s="9">
         <v>3.0</v>
@@ -2903,14 +2915,14 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F36" s="9">
         <v>2.0</v>
@@ -2941,14 +2953,14 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F37" s="9">
         <v>3.0</v>
@@ -2979,14 +2991,14 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F38" s="9">
         <v>2.0</v>
@@ -3017,14 +3029,14 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F39" s="9">
         <v>2.0</v>
@@ -3055,14 +3067,14 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F40" s="9">
         <v>2.0</v>
@@ -3093,14 +3105,14 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F41" s="9">
         <v>2.0</v>
@@ -3131,14 +3143,14 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="13" t="s">
         <v>127</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="F42" s="9">
         <v>2.0</v>
@@ -3169,14 +3181,14 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F43" s="9">
         <v>2.0</v>
@@ -3207,14 +3219,14 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F44" s="9">
         <v>2.0</v>
@@ -3245,14 +3257,14 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F45" s="9">
         <v>3.0</v>
@@ -3283,14 +3295,14 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F46" s="9">
         <v>2.0</v>
@@ -3321,14 +3333,14 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F47" s="9">
         <v>3.0</v>
@@ -3359,14 +3371,14 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F48" s="9">
         <v>2.0</v>
@@ -3397,14 +3409,14 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F49" s="9">
         <v>3.0</v>
@@ -3435,14 +3447,14 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F50" s="9">
         <v>2.0</v>
@@ -3473,14 +3485,14 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F51" s="9">
         <v>2.0</v>
@@ -3511,14 +3523,14 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F52" s="9">
         <v>2.0</v>
@@ -3549,14 +3561,14 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F53" s="9">
         <v>2.0</v>
@@ -3587,14 +3599,14 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E54" s="14" t="s">
         <v>163</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="F54" s="9">
         <v>2.0</v>
@@ -3625,19 +3637,19 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" s="14" t="s">
         <v>166</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="F55" s="9">
         <v>2.0</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="11"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -3663,13 +3675,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="16">
+      <c r="D56" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="17">
         <v>8.023886616E9</v>
       </c>
       <c r="F56" s="9">
@@ -3705,9 +3717,9 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E57" s="16">
+        <v>170</v>
+      </c>
+      <c r="E57" s="17">
         <v>8.033556554E9</v>
       </c>
       <c r="F57" s="9">
@@ -3739,13 +3751,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" s="17">
+        <v>172</v>
+      </c>
+      <c r="E58" s="18">
         <v>8.062690098E9</v>
       </c>
       <c r="F58" s="9">
@@ -3777,14 +3789,14 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="18" t="s">
         <v>174</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="F59" s="9">
         <v>1.0</v>
@@ -3815,14 +3827,14 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="18" t="s">
         <v>177</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="F60" s="9">
         <v>2.0</v>
@@ -3853,14 +3865,14 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="18" t="s">
         <v>180</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="F61" s="9">
         <v>1.0</v>
@@ -3891,17 +3903,17 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E62" s="18" t="s">
+      <c r="D62" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="E62" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="F62" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -3929,14 +3941,14 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E63" s="18" t="s">
         <v>186</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="F63" s="9">
         <v>1.0</v>
@@ -3964,17 +3976,17 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="5">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>188</v>
+      <c r="D64" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="F64" s="9">
         <v>1.0</v>
@@ -4001,18 +4013,18 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="5">
-        <v>64.0</v>
+      <c r="A65" s="7">
+        <v>65.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>191</v>
+      <c r="D65" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="F65" s="9">
         <v>1.0</v>
@@ -4039,18 +4051,18 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="7">
-        <v>65.0</v>
+      <c r="A66" s="5">
+        <v>66.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="F66" s="9">
         <v>1.0</v>
@@ -4077,18 +4089,18 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="5">
-        <v>66.0</v>
+      <c r="A67" s="7">
+        <v>67.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="F67" s="9">
         <v>1.0</v>
@@ -4115,18 +4127,18 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="7">
-        <v>67.0</v>
+      <c r="A68" s="5">
+        <v>68.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="F68" s="9">
         <v>1.0</v>
@@ -4153,21 +4165,21 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="5">
-        <v>68.0</v>
+      <c r="A69" s="7">
+        <v>69.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>203</v>
+      <c r="D69" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="F69" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -4191,18 +4203,18 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="7">
-        <v>69.0</v>
+      <c r="A70" s="5">
+        <v>70.0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>188</v>
+        <v>207</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="F70" s="9">
         <v>1.0</v>
@@ -4230,23 +4242,23 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="5">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F71" s="9">
+        <v>210</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" s="2">
         <v>1.0</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -4268,17 +4280,17 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="5">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>211</v>
+        <v>213</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="F72" s="2">
         <v>1.0</v>
@@ -4306,17 +4318,17 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="7">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>61</v>
+        <v>216</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="F73" s="2">
         <v>1.0</v>
@@ -4344,17 +4356,17 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="5">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="F74" s="2">
         <v>1.0</v>
@@ -4382,17 +4394,17 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="7">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="F75" s="2">
         <v>1.0</v>
@@ -4420,17 +4432,17 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="5">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>221</v>
+        <v>225</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="F76" s="2">
         <v>1.0</v>
@@ -4458,17 +4470,17 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="7">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>229</v>
       </c>
       <c r="F77" s="2">
         <v>1.0</v>
@@ -4496,17 +4508,17 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="5">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="F78" s="2">
         <v>1.0</v>
@@ -4534,17 +4546,17 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="7">
-        <v>78.0</v>
+        <v>80.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E79" s="18" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="F79" s="2">
         <v>1.0</v>
@@ -4572,17 +4584,17 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="5">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>232</v>
+        <v>236</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="F80" s="2">
         <v>1.0</v>
@@ -4610,17 +4622,17 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="7">
-        <v>80.0</v>
+        <v>82.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="F81" s="2">
         <v>1.0</v>
@@ -4648,17 +4660,17 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="5">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>238</v>
+        <v>242</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="F82" s="2">
         <v>1.0</v>
@@ -4685,19 +4697,17 @@
       <c r="Z82" s="4"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="7">
-        <v>82.0</v>
+      <c r="A83" s="5">
+        <v>84.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>241</v>
-      </c>
+      <c r="D83" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E83" s="5"/>
       <c r="F83" s="2">
         <v>1.0</v>
       </c>
@@ -4723,18 +4733,18 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="5">
-        <v>83.0</v>
+      <c r="A84" s="7">
+        <v>85.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>244</v>
+        <v>247</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="F84" s="2">
         <v>1.0</v>
@@ -4762,16 +4772,18 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="5">
-        <v>84.0</v>
+        <v>86.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E85" s="5"/>
+      <c r="D85" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>251</v>
+      </c>
       <c r="F85" s="2">
         <v>1.0</v>
       </c>
@@ -4797,18 +4809,18 @@
       <c r="Z85" s="4"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="7">
-        <v>85.0</v>
+      <c r="A86" s="5">
+        <v>87.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="F86" s="2">
         <v>1.0</v>
@@ -4835,18 +4847,18 @@
       <c r="Z86" s="4"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="5">
-        <v>86.0</v>
+      <c r="A87" s="7">
+        <v>88.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>252</v>
+        <v>256</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="F87" s="2">
         <v>1.0</v>
@@ -4874,17 +4886,17 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="5">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>44</v>
+        <v>259</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="F88" s="2">
         <v>1.0</v>
@@ -4911,18 +4923,18 @@
       <c r="Z88" s="4"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="7">
-        <v>88.0</v>
+      <c r="A89" s="5">
+        <v>90.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>257</v>
+        <v>262</v>
+      </c>
+      <c r="E89" s="19">
+        <v>15073193312</v>
       </c>
       <c r="F89" s="2">
         <v>1.0</v>
@@ -4949,18 +4961,18 @@
       <c r="Z89" s="4"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="5">
-        <v>89.0</v>
+      <c r="A90" s="7">
+        <v>91.0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>260</v>
+        <v>264</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="F90" s="2">
         <v>1.0</v>
@@ -4988,18 +5000,16 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="5">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E91" s="18">
-        <v>15073193312</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="E91" s="5"/>
       <c r="F91" s="2">
         <v>1.0</v>
       </c>
@@ -5025,19 +5035,17 @@
       <c r="Z91" s="4"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="7">
-        <v>91.0</v>
+      <c r="A92" s="5">
+        <v>93.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>265</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E92" s="5"/>
       <c r="F92" s="2">
         <v>1.0</v>
       </c>
@@ -5063,17 +5071,19 @@
       <c r="Z92" s="4"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="5">
-        <v>92.0</v>
+      <c r="A93" s="7">
+        <v>94.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E93" s="5"/>
+        <v>271</v>
+      </c>
+      <c r="E93" s="5">
+        <v>8.067741586E9</v>
+      </c>
       <c r="F93" s="2">
         <v>1.0</v>
       </c>
@@ -5100,16 +5110,18 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="5">
-        <v>93.0</v>
+        <v>95.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="E94" s="5"/>
+        <v>273</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="F94" s="2">
         <v>1.0</v>
       </c>
@@ -5136,17 +5148,17 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="7">
-        <v>94.0</v>
+        <v>96.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E95" s="5">
-        <v>8.067741586E9</v>
+        <v>276</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>277</v>
       </c>
       <c r="F95" s="2">
         <v>1.0</v>
@@ -5174,17 +5186,17 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="5">
-        <v>95.0</v>
+        <v>97.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>274</v>
+        <v>279</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="F96" s="2">
         <v>1.0</v>
@@ -5211,18 +5223,18 @@
       <c r="Z96" s="4"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="7">
-        <v>96.0</v>
+      <c r="A97" s="5">
+        <v>98.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E97" s="18" t="s">
-        <v>277</v>
+      <c r="E97" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="F97" s="2">
         <v>1.0</v>
@@ -5249,18 +5261,18 @@
       <c r="Z97" s="4"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="5">
-        <v>97.0</v>
+      <c r="A98" s="7">
+        <v>99.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="F98" s="2">
         <v>1.0</v>
@@ -5288,17 +5300,17 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="5">
-        <v>98.0</v>
+        <v>100.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E99" s="18" t="s">
-        <v>282</v>
+        <v>287</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="F99" s="2">
         <v>1.0</v>
@@ -5325,18 +5337,18 @@
       <c r="Z99" s="4"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="7">
-        <v>99.0</v>
+      <c r="A100" s="5">
+        <v>101.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>285</v>
+        <v>290</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F100" s="2">
         <v>1.0</v>
@@ -5363,18 +5375,18 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="5">
-        <v>100.0</v>
+      <c r="A101" s="7">
+        <v>102.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>288</v>
+        <v>293</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="F101" s="2">
         <v>1.0</v>
@@ -5402,17 +5414,17 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="5">
-        <v>101.0</v>
+        <v>103.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>291</v>
+        <v>296</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>297</v>
       </c>
       <c r="F102" s="2">
         <v>1.0</v>
@@ -5440,17 +5452,17 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="7">
-        <v>102.0</v>
+        <v>104.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>294</v>
+        <v>299</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>300</v>
       </c>
       <c r="F103" s="2">
         <v>1.0</v>
@@ -5478,17 +5490,17 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="5">
-        <v>103.0</v>
+        <v>105.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>297</v>
+        <v>302</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>303</v>
       </c>
       <c r="F104" s="2">
         <v>1.0</v>
@@ -5515,18 +5527,19 @@
       <c r="Z104" s="4"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="7">
-        <v>104.0</v>
+      <c r="A105" s="5">
+        <v>106.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>300</v>
+        <v>305</v>
+      </c>
+      <c r="E105" s="19">
+        <f>15073193312</f>
+        <v>15073193312</v>
       </c>
       <c r="F105" s="2">
         <v>1.0</v>
@@ -5553,18 +5566,18 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="5">
-        <v>105.0</v>
+      <c r="A106" s="7">
+        <v>107.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E106" s="18" t="s">
-        <v>303</v>
+        <v>307</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>308</v>
       </c>
       <c r="F106" s="2">
         <v>1.0</v>
@@ -5592,19 +5605,16 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="5">
-        <v>106.0</v>
+        <v>108.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E107" s="18">
-        <f>15073193312</f>
-        <v>15073193312</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E107" s="5"/>
       <c r="F107" s="2">
         <v>1.0</v>
       </c>
@@ -5630,18 +5640,18 @@
       <c r="Z107" s="4"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="7">
-        <v>107.0</v>
+      <c r="A108" s="5">
+        <v>109.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>313</v>
       </c>
       <c r="F108" s="2">
         <v>1.0</v>
@@ -5669,16 +5679,18 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="5">
-        <v>108.0</v>
+        <v>110.0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="E109" s="5"/>
+      <c r="D109" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>316</v>
+      </c>
       <c r="F109" s="2">
         <v>1.0</v>
       </c>
@@ -5705,17 +5717,17 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="5">
-        <v>109.0</v>
+        <v>111.0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>100</v>
+        <v>318</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="F110" s="2">
         <v>1.0</v>
@@ -5743,17 +5755,17 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="5">
-        <v>110.0</v>
+        <v>112.0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C111" s="5"/>
-      <c r="D111" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E111" s="18" t="s">
-        <v>315</v>
+      <c r="D111" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>322</v>
       </c>
       <c r="F111" s="2">
         <v>1.0</v>
@@ -5781,17 +5793,17 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="5">
-        <v>111.0</v>
+        <v>113.0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>318</v>
+        <v>324</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="F112" s="2">
         <v>1.0</v>
@@ -5819,17 +5831,17 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="5">
-        <v>112.0</v>
+        <v>114.0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>321</v>
+        <v>327</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="F113" s="2">
         <v>1.0</v>
@@ -5857,17 +5869,17 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="5">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="E114" s="18" t="s">
-        <v>324</v>
+        <v>330</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="F114" s="2">
         <v>1.0</v>
@@ -5895,17 +5907,17 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="5">
-        <v>114.0</v>
+        <v>116.0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>327</v>
+        <v>333</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="F115" s="2">
         <v>1.0</v>
@@ -5933,17 +5945,17 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="5">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>330</v>
+        <v>336</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="F116" s="2">
         <v>1.0</v>
@@ -5971,17 +5983,17 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="5">
-        <v>116.0</v>
+        <v>118.0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C117" s="5"/>
-      <c r="D117" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E117" s="18" t="s">
-        <v>333</v>
+      <c r="D117" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="F117" s="2">
         <v>1.0</v>
@@ -6009,17 +6021,17 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="5">
-        <v>117.0</v>
+        <v>119.0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>336</v>
+      <c r="D118" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="F118" s="2">
         <v>1.0</v>
@@ -6047,17 +6059,17 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="5">
-        <v>118.0</v>
+        <v>120.0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>339</v>
+        <v>345</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="F119" s="2">
         <v>1.0</v>
@@ -6085,20 +6097,20 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="5">
-        <v>119.0</v>
+        <v>121.0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>342</v>
+        <v>348</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="F120" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -6123,17 +6135,17 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="5">
-        <v>120.0</v>
+        <v>122.0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>345</v>
+        <v>351</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>352</v>
       </c>
       <c r="F121" s="2">
         <v>1.0</v>
@@ -6161,20 +6173,20 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="5">
-        <v>121.0</v>
+        <v>123.0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>348</v>
+      <c r="D122" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="F122" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -6199,17 +6211,17 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="5">
-        <v>122.0</v>
+        <v>123.0</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E123" s="18" t="s">
-        <v>351</v>
+        <v>357</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>358</v>
       </c>
       <c r="F123" s="2">
         <v>1.0</v>
@@ -6237,20 +6249,20 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="5">
-        <v>123.0</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>352</v>
+        <v>124.0</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="E124" s="18" t="s">
-        <v>354</v>
+      <c r="D124" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E124" s="22">
+        <v>8.051931418E9</v>
       </c>
       <c r="F124" s="2">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -6275,20 +6287,20 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="5">
-        <v>123.0</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>355</v>
+        <v>125.0</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>357</v>
+        <v>362</v>
+      </c>
+      <c r="E125" s="22">
+        <v>8.067651953E9</v>
       </c>
       <c r="F125" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -6313,20 +6325,20 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="5">
-        <v>124.0</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>358</v>
+        <v>126.0</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E126" s="19">
-        <v>8.051931418E9</v>
+        <v>364</v>
+      </c>
+      <c r="E126" s="22">
+        <v>8.069744949E9</v>
       </c>
       <c r="F126" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -6351,20 +6363,20 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="5">
-        <v>125.0</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>360</v>
+        <v>127.0</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E127" s="19">
-        <v>8.067651953E9</v>
+        <v>366</v>
+      </c>
+      <c r="E127" s="5">
+        <v>8.028345098E9</v>
       </c>
       <c r="F127" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -6389,17 +6401,17 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="5">
-        <v>126.0</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E128" s="19">
-        <v>8.069744949E9</v>
+        <v>128.0</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E128" s="5">
+        <v>9.03160024E9</v>
       </c>
       <c r="F128" s="2">
         <v>1.0</v>
@@ -6427,20 +6439,20 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="5">
-        <v>127.0</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5" t="s">
-        <v>365</v>
+        <v>129.0</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="E129" s="5">
-        <v>8.028345098E9</v>
+        <v>7.036284657E9</v>
       </c>
       <c r="F129" s="2">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -6465,20 +6477,20 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="5">
-        <v>128.0</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19" t="s">
-        <v>367</v>
+        <v>130.0</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="E130" s="5">
-        <v>9.03160024E9</v>
+        <v>8.037117311E9</v>
       </c>
       <c r="F130" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -6502,21 +6514,21 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="5">
-        <v>129.0</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="E131" s="5">
-        <v>7.036284657E9</v>
+      <c r="A131" s="23">
+        <v>131.0</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E131" s="23">
+        <v>8.034846488E9</v>
       </c>
       <c r="F131" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -6540,22 +6552,12 @@
       <c r="Z131" s="4"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="5">
-        <v>130.0</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>370</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="E132" s="5">
-        <v>8.037117311E9</v>
-      </c>
-      <c r="F132" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="D132" s="22"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="4"/>
@@ -6578,22 +6580,16 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="20">
+      <c r="A133" s="5">
         <v>131.0</v>
       </c>
-      <c r="B133" s="16" t="s">
-        <v>372</v>
-      </c>
+      <c r="B133" s="22"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="E133" s="20">
-        <v>8.034846488E9</v>
-      </c>
-      <c r="F133" s="2">
-        <v>2.0</v>
-      </c>
+      <c r="D133" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="4"/>
@@ -6616,10 +6612,14 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="5"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="19"/>
+      <c r="A134" s="5">
+        <v>132.0</v>
+      </c>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22" t="s">
+        <v>376</v>
+      </c>
       <c r="E134" s="5"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -6645,12 +6645,12 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="5">
-        <v>131.0</v>
-      </c>
-      <c r="B135" s="19"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="19" t="s">
-        <v>374</v>
+        <v>133.0</v>
+      </c>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22" t="s">
+        <v>377</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="3"/>
@@ -6677,15 +6677,19 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="5">
-        <v>132.0</v>
-      </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="3"/>
+        <v>134.0</v>
+      </c>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F136" s="2">
+        <v>1.0</v>
+      </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="4"/>
@@ -6709,12 +6713,12 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="5">
-        <v>133.0</v>
-      </c>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19" t="s">
-        <v>376</v>
+        <v>135.0</v>
+      </c>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="3"/>
@@ -6741,19 +6745,15 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="5">
-        <v>134.0</v>
-      </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="E138" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="F138" s="2">
-        <v>1.0</v>
-      </c>
+        <v>136.0</v>
+      </c>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="4"/>
@@ -6777,12 +6777,12 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="5">
-        <v>135.0</v>
-      </c>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19" t="s">
-        <v>379</v>
+        <v>137.0</v>
+      </c>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="3"/>
@@ -6809,12 +6809,12 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="5">
-        <v>136.0</v>
-      </c>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19" t="s">
-        <v>380</v>
+        <v>138.0</v>
+      </c>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22" t="s">
+        <v>383</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="3"/>
@@ -6840,15 +6840,11 @@
       <c r="Z140" s="4"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="5">
-        <v>137.0</v>
-      </c>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="E141" s="5"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -6872,16 +6868,20 @@
       <c r="Z141" s="4"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="5">
-        <v>138.0</v>
-      </c>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="3"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E142" s="2">
+        <v>9.083418541E9</v>
+      </c>
+      <c r="F142" s="2">
+        <v>2.0</v>
+      </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="4"/>
@@ -6905,11 +6905,19 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="B143" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="D143" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E143" s="2">
+        <v>8.027592066E9</v>
+      </c>
+      <c r="F143" s="2">
+        <v>3.0</v>
+      </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="4"/>
@@ -6934,17 +6942,17 @@
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E144" s="2">
-        <v>9.083418541E9</v>
+        <v>9.024304315E9</v>
       </c>
       <c r="F144" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -6969,19 +6977,11 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3"/>
-      <c r="B145" s="2" t="s">
-        <v>385</v>
-      </c>
+      <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E145" s="2">
-        <v>8.027592066E9</v>
-      </c>
-      <c r="F145" s="2">
-        <v>3.0</v>
-      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="4"/>
@@ -7005,19 +7005,11 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="3"/>
-      <c r="B146" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E146" s="2">
-        <v>9.024304315E9</v>
-      </c>
-      <c r="F146" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="4"/>
@@ -7545,7 +7537,9 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="B165" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -7601,9 +7595,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="3"/>
-      <c r="B167" s="3" t="s">
-        <v>389</v>
-      </c>
+      <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -8527,7 +8519,9 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+      <c r="B200" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8583,9 +8577,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="3"/>
-      <c r="B202" s="3" t="s">
-        <v>389</v>
-      </c>
+      <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -14155,62 +14147,8 @@
       <c r="Y400" s="4"/>
       <c r="Z400" s="4"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="3"/>
-      <c r="B401" s="3"/>
-      <c r="C401" s="3"/>
-      <c r="D401" s="3"/>
-      <c r="E401" s="3"/>
-      <c r="F401" s="3"/>
-      <c r="G401" s="3"/>
-      <c r="H401" s="3"/>
-      <c r="I401" s="4"/>
-      <c r="J401" s="4"/>
-      <c r="K401" s="4"/>
-      <c r="L401" s="4"/>
-      <c r="M401" s="4"/>
-      <c r="N401" s="4"/>
-      <c r="O401" s="4"/>
-      <c r="P401" s="4"/>
-      <c r="Q401" s="4"/>
-      <c r="R401" s="4"/>
-      <c r="S401" s="4"/>
-      <c r="T401" s="4"/>
-      <c r="U401" s="4"/>
-      <c r="V401" s="4"/>
-      <c r="W401" s="4"/>
-      <c r="X401" s="4"/>
-      <c r="Y401" s="4"/>
-      <c r="Z401" s="4"/>
-    </row>
-    <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="3"/>
-      <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
-      <c r="D402" s="3"/>
-      <c r="E402" s="3"/>
-      <c r="F402" s="3"/>
-      <c r="G402" s="3"/>
-      <c r="H402" s="3"/>
-      <c r="I402" s="4"/>
-      <c r="J402" s="4"/>
-      <c r="K402" s="4"/>
-      <c r="L402" s="4"/>
-      <c r="M402" s="4"/>
-      <c r="N402" s="4"/>
-      <c r="O402" s="4"/>
-      <c r="P402" s="4"/>
-      <c r="Q402" s="4"/>
-      <c r="R402" s="4"/>
-      <c r="S402" s="4"/>
-      <c r="T402" s="4"/>
-      <c r="U402" s="4"/>
-      <c r="V402" s="4"/>
-      <c r="W402" s="4"/>
-      <c r="X402" s="4"/>
-      <c r="Y402" s="4"/>
-      <c r="Z402" s="4"/>
-    </row>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
     <row r="403" ht="15.75" customHeight="1"/>
     <row r="404" ht="15.75" customHeight="1"/>
     <row r="405" ht="15.75" customHeight="1"/>
@@ -14808,8 +14746,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/public/list.xlsx
+++ b/public/list.xlsx
@@ -150,7 +150,7 @@
     <t>OYINDAMOLA, OKIKIOLUWA &amp; TIWALOLA</t>
   </si>
   <si>
-    <t>0808027704160</t>
+    <t>08027704160</t>
   </si>
   <si>
     <t>OMOJIADE</t>
@@ -222,7 +222,7 @@
     <t>TIRENI &amp; TISHE</t>
   </si>
   <si>
-    <t>0803762863</t>
+    <t>08037262863</t>
   </si>
   <si>
     <t>ADETIRAN</t>
@@ -279,7 +279,7 @@
     <t>08069789336</t>
   </si>
   <si>
-    <t>ADEWOLE</t>
+    <t xml:space="preserve">ADEWOLE  </t>
   </si>
   <si>
     <t>TEMILOLUWA  &amp; ADESOLA</t>
@@ -1280,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1321,6 +1321,9 @@
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2389,7 +2392,7 @@
       <c r="D22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F22" s="9">
@@ -2648,7 +2651,7 @@
       <c r="A29" s="5">
         <v>28.0</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="5"/>
@@ -3149,7 +3152,7 @@
       <c r="D42" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="15" t="s">
         <v>128</v>
       </c>
       <c r="F42" s="9">
@@ -3605,7 +3608,7 @@
       <c r="D54" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="16" t="s">
         <v>164</v>
       </c>
       <c r="F54" s="9">
@@ -3643,7 +3646,7 @@
       <c r="D55" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="16" t="s">
         <v>167</v>
       </c>
       <c r="F55" s="9">
@@ -3678,10 +3681,10 @@
         <v>168</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="18">
         <v>8.023886616E9</v>
       </c>
       <c r="F56" s="9">
@@ -3719,7 +3722,7 @@
       <c r="D57" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="18">
         <v>8.033556554E9</v>
       </c>
       <c r="F57" s="9">
@@ -3757,7 +3760,7 @@
       <c r="D58" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="19">
         <v>8.062690098E9</v>
       </c>
       <c r="F58" s="9">
@@ -3795,7 +3798,7 @@
       <c r="D59" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="20" t="s">
         <v>175</v>
       </c>
       <c r="F59" s="9">
@@ -3833,7 +3836,7 @@
       <c r="D60" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="20" t="s">
         <v>178</v>
       </c>
       <c r="F60" s="9">
@@ -3871,7 +3874,7 @@
       <c r="D61" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="20" t="s">
         <v>181</v>
       </c>
       <c r="F61" s="9">
@@ -3906,10 +3909,10 @@
         <v>182</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="20" t="s">
         <v>184</v>
       </c>
       <c r="F62" s="9">
@@ -3947,7 +3950,7 @@
       <c r="D63" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="20" t="s">
         <v>187</v>
       </c>
       <c r="F63" s="9">
@@ -3985,7 +3988,7 @@
       <c r="D64" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="20" t="s">
         <v>190</v>
       </c>
       <c r="F64" s="9">
@@ -4023,7 +4026,7 @@
       <c r="D65" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="20" t="s">
         <v>193</v>
       </c>
       <c r="F65" s="9">
@@ -4061,7 +4064,7 @@
       <c r="D66" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="20" t="s">
         <v>196</v>
       </c>
       <c r="F66" s="9">
@@ -4099,7 +4102,7 @@
       <c r="D67" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="20" t="s">
         <v>199</v>
       </c>
       <c r="F67" s="9">
@@ -4137,7 +4140,7 @@
       <c r="D68" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="20" t="s">
         <v>202</v>
       </c>
       <c r="F68" s="9">
@@ -4172,10 +4175,10 @@
         <v>203</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="20" t="s">
         <v>205</v>
       </c>
       <c r="F69" s="9">
@@ -4213,7 +4216,7 @@
       <c r="D70" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="20" t="s">
         <v>208</v>
       </c>
       <c r="F70" s="9">
@@ -4251,7 +4254,7 @@
       <c r="D71" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="20" t="s">
         <v>211</v>
       </c>
       <c r="F71" s="2">
@@ -4289,7 +4292,7 @@
       <c r="D72" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="20" t="s">
         <v>214</v>
       </c>
       <c r="F72" s="2">
@@ -4327,7 +4330,7 @@
       <c r="D73" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="20" t="s">
         <v>217</v>
       </c>
       <c r="F73" s="2">
@@ -4365,7 +4368,7 @@
       <c r="D74" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="20" t="s">
         <v>220</v>
       </c>
       <c r="F74" s="2">
@@ -4403,7 +4406,7 @@
       <c r="D75" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="20" t="s">
         <v>223</v>
       </c>
       <c r="F75" s="2">
@@ -4441,7 +4444,7 @@
       <c r="D76" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="20" t="s">
         <v>226</v>
       </c>
       <c r="F76" s="2">
@@ -4479,7 +4482,7 @@
       <c r="D77" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="20" t="s">
         <v>229</v>
       </c>
       <c r="F77" s="2">
@@ -4517,7 +4520,7 @@
       <c r="D78" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="20" t="s">
         <v>231</v>
       </c>
       <c r="F78" s="2">
@@ -4555,7 +4558,7 @@
       <c r="D79" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="20" t="s">
         <v>234</v>
       </c>
       <c r="F79" s="2">
@@ -4593,7 +4596,7 @@
       <c r="D80" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="20" t="s">
         <v>237</v>
       </c>
       <c r="F80" s="2">
@@ -4631,7 +4634,7 @@
       <c r="D81" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="20" t="s">
         <v>240</v>
       </c>
       <c r="F81" s="2">
@@ -4669,7 +4672,7 @@
       <c r="D82" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="20" t="s">
         <v>243</v>
       </c>
       <c r="F82" s="2">
@@ -4743,7 +4746,7 @@
       <c r="D84" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="20" t="s">
         <v>248</v>
       </c>
       <c r="F84" s="2">
@@ -4781,7 +4784,7 @@
       <c r="D85" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="20" t="s">
         <v>251</v>
       </c>
       <c r="F85" s="2">
@@ -4819,7 +4822,7 @@
       <c r="D86" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="20" t="s">
         <v>254</v>
       </c>
       <c r="F86" s="2">
@@ -4857,7 +4860,7 @@
       <c r="D87" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="20" t="s">
         <v>257</v>
       </c>
       <c r="F87" s="2">
@@ -4895,7 +4898,7 @@
       <c r="D88" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="20" t="s">
         <v>260</v>
       </c>
       <c r="F88" s="2">
@@ -4933,7 +4936,7 @@
       <c r="D89" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E89" s="20">
         <v>15073193312</v>
       </c>
       <c r="F89" s="2">
@@ -4971,7 +4974,7 @@
       <c r="D90" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="20" t="s">
         <v>265</v>
       </c>
       <c r="F90" s="2">
@@ -5119,7 +5122,7 @@
       <c r="D94" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="20" t="s">
         <v>274</v>
       </c>
       <c r="F94" s="2">
@@ -5157,7 +5160,7 @@
       <c r="D95" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="20" t="s">
         <v>277</v>
       </c>
       <c r="F95" s="2">
@@ -5195,7 +5198,7 @@
       <c r="D96" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="20" t="s">
         <v>280</v>
       </c>
       <c r="F96" s="2">
@@ -5233,7 +5236,7 @@
       <c r="D97" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="20" t="s">
         <v>282</v>
       </c>
       <c r="F97" s="2">
@@ -5271,7 +5274,7 @@
       <c r="D98" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="20" t="s">
         <v>285</v>
       </c>
       <c r="F98" s="2">
@@ -5309,7 +5312,7 @@
       <c r="D99" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="20" t="s">
         <v>288</v>
       </c>
       <c r="F99" s="2">
@@ -5347,7 +5350,7 @@
       <c r="D100" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="20" t="s">
         <v>291</v>
       </c>
       <c r="F100" s="2">
@@ -5385,7 +5388,7 @@
       <c r="D101" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="20" t="s">
         <v>294</v>
       </c>
       <c r="F101" s="2">
@@ -5423,7 +5426,7 @@
       <c r="D102" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="20" t="s">
         <v>297</v>
       </c>
       <c r="F102" s="2">
@@ -5461,7 +5464,7 @@
       <c r="D103" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="20" t="s">
         <v>300</v>
       </c>
       <c r="F103" s="2">
@@ -5499,7 +5502,7 @@
       <c r="D104" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="E104" s="19" t="s">
+      <c r="E104" s="20" t="s">
         <v>303</v>
       </c>
       <c r="F104" s="2">
@@ -5537,10 +5540,7 @@
       <c r="D105" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E105" s="19">
-        <f>15073193312</f>
-        <v>15073193312</v>
-      </c>
+      <c r="E105" s="20"/>
       <c r="F105" s="2">
         <v>1.0</v>
       </c>
@@ -5576,7 +5576,7 @@
       <c r="D106" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="20" t="s">
         <v>308</v>
       </c>
       <c r="F106" s="2">
@@ -5650,7 +5650,7 @@
       <c r="D108" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="E108" s="22" t="s">
         <v>313</v>
       </c>
       <c r="F108" s="2">
@@ -5688,7 +5688,7 @@
       <c r="D109" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="20" t="s">
         <v>316</v>
       </c>
       <c r="F109" s="2">
@@ -5726,7 +5726,7 @@
       <c r="D110" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="E110" s="20" t="s">
         <v>319</v>
       </c>
       <c r="F110" s="2">
@@ -5764,7 +5764,7 @@
       <c r="D111" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E111" s="20" t="s">
         <v>322</v>
       </c>
       <c r="F111" s="2">
@@ -5802,7 +5802,7 @@
       <c r="D112" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="E112" s="20" t="s">
         <v>325</v>
       </c>
       <c r="F112" s="2">
@@ -5840,7 +5840,7 @@
       <c r="D113" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E113" s="19" t="s">
+      <c r="E113" s="20" t="s">
         <v>328</v>
       </c>
       <c r="F113" s="2">
@@ -5878,7 +5878,7 @@
       <c r="D114" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="E114" s="19" t="s">
+      <c r="E114" s="20" t="s">
         <v>331</v>
       </c>
       <c r="F114" s="2">
@@ -5916,7 +5916,7 @@
       <c r="D115" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="E115" s="20" t="s">
         <v>334</v>
       </c>
       <c r="F115" s="2">
@@ -5954,7 +5954,7 @@
       <c r="D116" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="E116" s="20" t="s">
         <v>337</v>
       </c>
       <c r="F116" s="2">
@@ -5992,7 +5992,7 @@
       <c r="D117" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="20" t="s">
         <v>340</v>
       </c>
       <c r="F117" s="2">
@@ -6030,7 +6030,7 @@
       <c r="D118" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="E118" s="20" t="s">
         <v>343</v>
       </c>
       <c r="F118" s="2">
@@ -6068,7 +6068,7 @@
       <c r="D119" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="E119" s="20" t="s">
         <v>346</v>
       </c>
       <c r="F119" s="2">
@@ -6106,7 +6106,7 @@
       <c r="D120" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E120" s="19" t="s">
+      <c r="E120" s="20" t="s">
         <v>349</v>
       </c>
       <c r="F120" s="2">
@@ -6144,7 +6144,7 @@
       <c r="D121" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="20" t="s">
         <v>352</v>
       </c>
       <c r="F121" s="2">
@@ -6182,7 +6182,7 @@
       <c r="D122" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="E122" s="19" t="s">
+      <c r="E122" s="20" t="s">
         <v>355</v>
       </c>
       <c r="F122" s="2">
@@ -6220,7 +6220,7 @@
       <c r="D123" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="20" t="s">
         <v>358</v>
       </c>
       <c r="F123" s="2">
@@ -6251,14 +6251,14 @@
       <c r="A124" s="5">
         <v>124.0</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="B124" s="23" t="s">
         <v>359</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E124" s="22">
+      <c r="E124" s="23">
         <v>8.051931418E9</v>
       </c>
       <c r="F124" s="2">
@@ -6289,14 +6289,14 @@
       <c r="A125" s="5">
         <v>125.0</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="23" t="s">
         <v>361</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E125" s="22">
+      <c r="E125" s="23">
         <v>8.067651953E9</v>
       </c>
       <c r="F125" s="2">
@@ -6327,14 +6327,14 @@
       <c r="A126" s="5">
         <v>126.0</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="23" t="s">
         <v>363</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E126" s="22">
+      <c r="E126" s="23">
         <v>8.069744949E9</v>
       </c>
       <c r="F126" s="2">
@@ -6365,7 +6365,7 @@
       <c r="A127" s="5">
         <v>127.0</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="23" t="s">
         <v>365</v>
       </c>
       <c r="C127" s="5"/>
@@ -6403,11 +6403,11 @@
       <c r="A128" s="5">
         <v>128.0</v>
       </c>
-      <c r="B128" s="22" t="s">
+      <c r="B128" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22" t="s">
+      <c r="C128" s="23"/>
+      <c r="D128" s="23" t="s">
         <v>368</v>
       </c>
       <c r="E128" s="5">
@@ -6441,11 +6441,11 @@
       <c r="A129" s="5">
         <v>129.0</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B129" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22" t="s">
+      <c r="C129" s="23"/>
+      <c r="D129" s="23" t="s">
         <v>370</v>
       </c>
       <c r="E129" s="5">
@@ -6479,11 +6479,11 @@
       <c r="A130" s="5">
         <v>130.0</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="23" t="s">
         <v>371</v>
       </c>
       <c r="C130" s="5"/>
-      <c r="D130" s="22" t="s">
+      <c r="D130" s="23" t="s">
         <v>372</v>
       </c>
       <c r="E130" s="5">
@@ -6514,17 +6514,17 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="23">
+      <c r="A131" s="24">
         <v>131.0</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="18" t="s">
         <v>373</v>
       </c>
       <c r="C131" s="5"/>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="E131" s="23">
+      <c r="E131" s="24">
         <v>8.034846488E9</v>
       </c>
       <c r="F131" s="2">
@@ -6553,9 +6553,9 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="5"/>
-      <c r="B132" s="22"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="22"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="5"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -6583,9 +6583,9 @@
       <c r="A133" s="5">
         <v>131.0</v>
       </c>
-      <c r="B133" s="22"/>
+      <c r="B133" s="23"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="23" t="s">
         <v>375</v>
       </c>
       <c r="E133" s="5"/>
@@ -6615,9 +6615,9 @@
       <c r="A134" s="5">
         <v>132.0</v>
       </c>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22" t="s">
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23" t="s">
         <v>376</v>
       </c>
       <c r="E134" s="5"/>
@@ -6647,9 +6647,9 @@
       <c r="A135" s="5">
         <v>133.0</v>
       </c>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22" t="s">
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23" t="s">
         <v>377</v>
       </c>
       <c r="E135" s="5"/>
@@ -6679,12 +6679,12 @@
       <c r="A136" s="5">
         <v>134.0</v>
       </c>
-      <c r="B136" s="22"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22" t="s">
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="E136" s="19" t="s">
+      <c r="E136" s="20" t="s">
         <v>379</v>
       </c>
       <c r="F136" s="2">
@@ -6715,9 +6715,9 @@
       <c r="A137" s="5">
         <v>135.0</v>
       </c>
-      <c r="B137" s="22"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="22" t="s">
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23" t="s">
         <v>380</v>
       </c>
       <c r="E137" s="5"/>
@@ -6747,9 +6747,9 @@
       <c r="A138" s="5">
         <v>136.0</v>
       </c>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="22" t="s">
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23" t="s">
         <v>381</v>
       </c>
       <c r="E138" s="5"/>
@@ -6779,9 +6779,9 @@
       <c r="A139" s="5">
         <v>137.0</v>
       </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="22"/>
-      <c r="D139" s="22" t="s">
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23" t="s">
         <v>382</v>
       </c>
       <c r="E139" s="5"/>
@@ -6811,9 +6811,9 @@
       <c r="A140" s="5">
         <v>138.0</v>
       </c>
-      <c r="B140" s="22"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22" t="s">
+      <c r="B140" s="23"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23" t="s">
         <v>383</v>
       </c>
       <c r="E140" s="5"/>
